--- a/mitochondria distance/011425_mito_OA/1K_analysis_by_image.xlsx
+++ b/mitochondria distance/011425_mito_OA/1K_analysis_by_image.xlsx
@@ -461,9 +461,7 @@
           <t>1K_Lipidtox_01</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>0</v>
       </c>
@@ -493,9 +491,7 @@
           <t>1K_mitotracker_01</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>0.06509724893896369</v>
@@ -507,9 +503,7 @@
           <t>1K_mitotracker_Lipidtox_01</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.1902173913043478</v>
       </c>
@@ -523,14 +517,12 @@
           <t>1K_mitotracker_Lipidtox_02</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.01554260338606717</v>
+        <v>0.01503221188260558</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04016798226853832</v>
+        <v>0.03947070798461887</v>
       </c>
     </row>
     <row r="7">
@@ -539,14 +531,12 @@
           <t>1K_mitotracker_Lipidtox_03</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0.1347197106690778</v>
+        <v>0.1353007945516459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01624269508422138</v>
+        <v>0.01621621621621622</v>
       </c>
     </row>
     <row r="8">
@@ -555,14 +545,12 @@
           <t>1K_mitotracker_Lipidtox_04</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>0.08637105549510338</v>
+        <v>0.08672493854138213</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06414415685168207</v>
+        <v>0.06407637029730873</v>
       </c>
     </row>
     <row r="9">
@@ -571,14 +559,12 @@
           <t>1K_mitotracker_Lipidtox_05</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0.2787067053403856</v>
+        <v>0.2866678376954154</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03462486192539723</v>
+        <v>0.03426321521320265</v>
       </c>
     </row>
     <row r="10">
@@ -587,14 +573,12 @@
           <t>1K_mitotracker_Lipidtox_06</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>0.1884559884559885</v>
+        <v>0.1926393594086849</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1192233557425603</v>
+        <v>0.1193624176532916</v>
       </c>
     </row>
     <row r="11">
@@ -603,14 +587,12 @@
           <t>1K_mitotracker_Lipidtox_07</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>0.2211045739229455</v>
+        <v>0.2374130167826443</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02034182140570359</v>
+        <v>0.02020690321956879</v>
       </c>
     </row>
     <row r="12">
@@ -619,9 +601,7 @@
           <t>1K_mitotracker_Lipidtox_08</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>0.164630599185573</v>
       </c>
@@ -638,11 +618,9 @@
       <c r="B13" t="n">
         <v>0.08484761768493347</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.05808477237048666</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>0.06557089377632194</v>
+        <v>0.0649591470128064</v>
       </c>
     </row>
     <row r="14">
@@ -655,10 +633,10 @@
         <v>0.1176518682037446</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1283614441509178</v>
+        <v>0.2086126869520371</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01267948610294735</v>
+        <v>0.01296990159344505</v>
       </c>
     </row>
     <row r="15">
@@ -670,11 +648,9 @@
       <c r="B15" t="n">
         <v>0.05916280695621778</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.06362898315404912</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>0.01706700379266751</v>
+        <v>0.01709508360369354</v>
       </c>
     </row>
     <row r="16">
@@ -687,10 +663,10 @@
         <v>0.07594321275768183</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07845733675411735</v>
+        <v>0.0361952861952862</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04535449490268768</v>
+        <v>0.05101817385592292</v>
       </c>
     </row>
     <row r="17">
@@ -699,14 +675,12 @@
           <t>1K_mitotracker_Lipidtox_OA_05</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>0.02971029105330376</v>
+        <v>0.03002144388849178</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01423248882265276</v>
+        <v>0.01410986588278523</v>
       </c>
     </row>
     <row r="18">
@@ -719,10 +693,10 @@
         <v>0.02346217476312227</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02636042402826855</v>
+        <v>0.01931486880466472</v>
       </c>
       <c r="D18" t="n">
-        <v>0.006711409395973154</v>
+        <v>0.008735221224556129</v>
       </c>
     </row>
     <row r="19">
@@ -731,14 +705,12 @@
           <t>1K_mitotracker_Lipidtox_OA_07</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>0.06353719691878199</v>
+        <v>0.06356019859329748</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05193945545209832</v>
+        <v>0.0519234162696312</v>
       </c>
     </row>
     <row r="20">
@@ -751,10 +723,10 @@
         <v>0.1362322483347995</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1272392756850973</v>
+        <v>0.2641277641277641</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00874372426242455</v>
+        <v>0.008673171545325662</v>
       </c>
     </row>
     <row r="21">
@@ -763,9 +735,7 @@
           <t>1K_mitotracker_OA_01</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
         <v>0.02802225818609085</v>
